--- a/report/CS162-22APCS1-2-CSC10002-22CLC02-06-Solo Project-Grading Scheme.xlsx
+++ b/report/CS162-22APCS1-2-CSC10002-22CLC02-06-Solo Project-Grading Scheme.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\DataVisualizationApplication\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ABC669-E049-4823-A80A-18AB892425FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C74250-47D3-4259-B7AC-286352489790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
   <si>
     <t>Course ID</t>
   </si>
@@ -249,6 +236,15 @@
   <si>
     <t>B18</t>
   </si>
+  <si>
+    <t>Solo project</t>
+  </si>
+  <si>
+    <t>22CLC06</t>
+  </si>
+  <si>
+    <t>CSC10002</t>
+  </si>
 </sst>
 </file>
 
@@ -343,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -376,6 +372,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -601,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:K1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -616,7 +615,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -631,7 +632,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -646,7 +649,9 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="13">
+        <v>22127083</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -661,7 +666,9 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -910,11 +917,11 @@
         <v>20</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -934,11 +941,11 @@
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7">
-        <f t="shared" ref="C20:D20" si="0">SUM(C22:K201)</f>
-        <v>733</v>
+        <f>SUM(C22:C201)</f>
+        <v>406</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D20" si="0">SUM(D22:L201)</f>
         <v>327</v>
       </c>
       <c r="E20" s="7"/>
@@ -2426,7 +2433,9 @@
       <c r="C93" s="11">
         <v>5</v>
       </c>
-      <c r="D93" s="11"/>
+      <c r="D93" s="11">
+        <v>0</v>
+      </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
@@ -2445,7 +2454,9 @@
       <c r="C94" s="11">
         <v>10</v>
       </c>
-      <c r="D94" s="11"/>
+      <c r="D94" s="11">
+        <v>0</v>
+      </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
@@ -2464,7 +2475,9 @@
       <c r="C95" s="11">
         <v>10</v>
       </c>
-      <c r="D95" s="11"/>
+      <c r="D95" s="11">
+        <v>0</v>
+      </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
@@ -2483,7 +2496,9 @@
       <c r="C96" s="11">
         <v>10</v>
       </c>
-      <c r="D96" s="11"/>
+      <c r="D96" s="11">
+        <v>0</v>
+      </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
@@ -2502,7 +2517,9 @@
       <c r="C97" s="11">
         <v>10</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
@@ -2521,7 +2538,9 @@
       <c r="C98" s="11">
         <v>10</v>
       </c>
-      <c r="D98" s="11"/>
+      <c r="D98" s="11">
+        <v>0</v>
+      </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
@@ -2557,7 +2576,9 @@
       <c r="C100" s="11">
         <v>4</v>
       </c>
-      <c r="D100" s="11"/>
+      <c r="D100" s="11">
+        <v>0</v>
+      </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
@@ -2576,7 +2597,9 @@
       <c r="C101" s="11">
         <v>4</v>
       </c>
-      <c r="D101" s="11"/>
+      <c r="D101" s="11">
+        <v>0</v>
+      </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
@@ -2595,7 +2618,9 @@
       <c r="C102" s="11">
         <v>4</v>
       </c>
-      <c r="D102" s="11"/>
+      <c r="D102" s="11">
+        <v>0</v>
+      </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
@@ -2614,7 +2639,9 @@
       <c r="C103" s="11">
         <v>4</v>
       </c>
-      <c r="D103" s="11"/>
+      <c r="D103" s="11">
+        <v>0</v>
+      </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
@@ -2633,7 +2660,9 @@
       <c r="C104" s="11">
         <v>4</v>
       </c>
-      <c r="D104" s="11"/>
+      <c r="D104" s="11">
+        <v>0</v>
+      </c>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
@@ -2652,7 +2681,9 @@
       <c r="C105" s="11">
         <v>4</v>
       </c>
-      <c r="D105" s="11"/>
+      <c r="D105" s="11">
+        <v>0</v>
+      </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
@@ -14509,5 +14540,6 @@
     <mergeCell ref="F18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>